--- a/data_bst_avl.xlsx
+++ b/data_bst_avl.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttown\Dropbox\ucf\fall-2018\cop-6616\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttown\Dropbox\ucf\fall-2018\cop-6616\project\ConcurrentTreeTraversals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E61E19-9ACB-443D-A047-7B02E9B17137}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6536553A-DDC8-4DAB-A2DD-69C5392593CA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{6A58CD52-EC30-4D0D-AA62-F3560D9273AD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="7" xr2:uid="{6A58CD52-EC30-4D0D-AA62-F3560D9273AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Concurrent-9-1-90" sheetId="4" r:id="rId1"/>
@@ -110,10 +110,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2004,7 +2003,7 @@
                   <c:v>6.1314522037972079</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7573770175382966</c:v>
+                  <c:v>3.2386618496969422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2071,7 +2070,7 @@
             <c:numRef>
               <c:f>STM!$G$7:$G$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2.7441843872373477</c:v>
@@ -2083,7 +2082,7 @@
                   <c:v>6.4879243508020696</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8721766503527033</c:v>
+                  <c:v>3.5838568750918363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2532,7 +2531,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>STM!$A$22:$A$25</c:f>
+              <c:f>STM!$A$24:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2553,21 +2552,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>STM!$C$22:$C$25</c:f>
+              <c:f>STM!$C$24:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0768261625684459</c:v>
+                  <c:v>1.0596419469861134</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.634561161192249</c:v>
+                  <c:v>1.7363522711487709</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6256125882369927</c:v>
+                  <c:v>2.7699334800474764</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96859805118072106</c:v>
+                  <c:v>1.3189045179074259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2584,7 +2583,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>STM!$E$20</c:f>
+              <c:f>STM!$E$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2619,7 +2618,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>STM!$E$22:$E$25</c:f>
+              <c:f>STM!$E$24:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2640,21 +2639,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>STM!$G$22:$G$25</c:f>
+              <c:f>STM!$G$24:$G$27</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.1393998780842129</c:v>
+                  <c:v>1.2187616163216555</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7630931706586035</c:v>
+                  <c:v>1.8346267451886913</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8639057660446743</c:v>
+                  <c:v>2.9429032623554119</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0038699185359561</c:v>
+                  <c:v>1.3935825523464447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3103,7 +3102,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>STM!$A$38:$A$41</c:f>
+              <c:f>STM!$A$40:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3124,21 +3123,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>STM!$C$38:$C$41</c:f>
+              <c:f>STM!$C$40:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.1393998780842129</c:v>
+                  <c:v>0.41276347208377445</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7630931706586035</c:v>
+                  <c:v>0.67326012751546815</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8639057660446743</c:v>
+                  <c:v>0.8355056480181805</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0038699185359561</c:v>
+                  <c:v>0.33503868021563094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3155,7 +3154,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>STM!$E$36</c:f>
+              <c:f>STM!$E$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3190,7 +3189,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>STM!$E$38:$E$41</c:f>
+              <c:f>STM!$E$40:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3211,9 +3210,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>STM!$G$38:$G$41</c:f>
+              <c:f>STM!$G$40:$G$43</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.41718119013449922</c:v>
@@ -3714,16 +3713,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.9064698017787598</c:v>
+                  <c:v>3.0905118196624541</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8682292059674754</c:v>
+                  <c:v>4.598504566315035</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1747077203442426</c:v>
+                  <c:v>8.3795605758434029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.60877748998536</c:v>
+                  <c:v>5.8648446549272037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3801,16 +3800,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.9845356286402005</c:v>
+                  <c:v>3.1860070570056314</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6839943229988803</c:v>
+                  <c:v>4.927722628348695</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8256823122681398</c:v>
+                  <c:v>7.4950439022196571</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3728908963604662</c:v>
+                  <c:v>4.6493571101455951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4232,7 +4231,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>STM_Improved!$A$20</c:f>
+              <c:f>STM_Improved!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4267,7 +4266,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>STM_Improved!$A$22:$A$25</c:f>
+              <c:f>STM_Improved!$A$23:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4288,21 +4287,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>STM_Improved!$C$22:$C$25</c:f>
+              <c:f>STM_Improved!$C$23:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.599232368463138</c:v>
+                  <c:v>1.483294396855416</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5224466218764228</c:v>
+                  <c:v>2.7039267776628613</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.829062970855087</c:v>
+                  <c:v>4.6193643754619371</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64262396216230122</c:v>
+                  <c:v>3.3523635839448604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4346,7 +4345,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>STM_Improved!$E$22:$E$25</c:f>
+              <c:f>STM_Improved!$E$23:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4367,21 +4366,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>STM_Improved!$G$22:$G$25</c:f>
+              <c:f>STM_Improved!$G$23:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.4278574998215179</c:v>
+                  <c:v>1.495987014832711</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1210189799383419</c:v>
+                  <c:v>2.173941399235642</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3107649522422151</c:v>
+                  <c:v>3.5848782664962653</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71514388695005437</c:v>
+                  <c:v>1.9058872858259162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4830,7 +4829,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>STM_Improved!$A$38:$A$41</c:f>
+              <c:f>STM_Improved!$A$39:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4851,21 +4850,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>STM_Improved!$C$38:$C$41</c:f>
+              <c:f>STM_Improved!$C$39:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.4278574998215179</c:v>
+                  <c:v>0.65612277369341343</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1210189799383419</c:v>
+                  <c:v>1.1322079186621832</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3107649522422151</c:v>
+                  <c:v>1.8477969640695884</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71514388695005437</c:v>
+                  <c:v>0.84228258580753845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4882,7 +4881,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>STM_Improved!$E$36</c:f>
+              <c:f>STM_Improved!$E$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4917,7 +4916,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>STM_Improved!$E$38:$E$41</c:f>
+              <c:f>STM_Improved!$E$39:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4938,21 +4937,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>STM_Improved!$G$38:$G$41</c:f>
+              <c:f>STM_Improved!$G$39:$G$42</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.68600044590028986</c:v>
+                  <c:v>0.4689342765164749</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1904195038331509</c:v>
+                  <c:v>0.79606425830693039</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7655211377018212</c:v>
+                  <c:v>1.2449889195986155</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27502485537130417</c:v>
+                  <c:v>0.56491908946341163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10301,7 +10300,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{514BDFF5-0CE4-4E50-B7DA-C069BA3EDE88}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10466,7 +10465,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8670192" cy="6293013"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -13280,8 +13279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDF4BA8-233F-435B-B918-9D5FE8AA958C}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13357,6 +13356,10 @@
       <c r="C7" s="1">
         <f>$B$1/B7*1000/1000000</f>
         <v>2.7930854376904537</v>
+      </c>
+      <c r="D7" s="1">
+        <f>$B$1/B7/1000000</f>
+        <v>2.7930854376904536E-3</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -13769,10 +13772,606 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CB63B6-1C9E-4337-9F0A-06B241089414}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:B51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>948.47500000000002</v>
+      </c>
+      <c r="C7" s="1">
+        <f>$B$1/B7*1000/1000000</f>
+        <v>2.1086480929913809</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>728.81399999999996</v>
+      </c>
+      <c r="G7" s="1">
+        <f>$B$1/F7*1000/1000000</f>
+        <v>2.7441843872373477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>565.23099999999999</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" ref="C8:C18" si="0">$B$1/B8*1000/1000000</f>
+        <v>3.5383763452464572</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>487.47199999999998</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" ref="G8:G10" si="1">$B$1/F8*1000/1000000</f>
+        <v>4.1027997505497753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>326.18700000000001</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>6.1314522037972079</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>308.26499999999999</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>6.4879243508020696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>617.53899999999999</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2386618496969422</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>558.05799999999999</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5838568750918363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>7422.12</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.26946478903601667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>3804.14</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.52574300630365867</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2021.62</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98930560639487153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>7247.9</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.27594199699223221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>9692.76</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20633957716893847</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>5707.39</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35042287280175349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>3681.16</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.54330700105401564</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>10365</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.19295706705258081</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>1887.43</v>
+      </c>
+      <c r="C24" s="1">
+        <f>$B$1/B24*1000/1000000</f>
+        <v>1.0596419469861134</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1641.01</v>
+      </c>
+      <c r="G24" s="1">
+        <f>$B$1/F24*1000/1000000</f>
+        <v>1.2187616163216555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>1151.8399999999999</v>
+      </c>
+      <c r="C25" s="1">
+        <f>$B$1/B25*1000/1000000</f>
+        <v>1.7363522711487709</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1090.1400000000001</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" ref="G25:G27" si="2">$B$1/F25*1000/1000000</f>
+        <v>1.8346267451886913</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>722.03899999999999</v>
+      </c>
+      <c r="C26" s="1">
+        <f>$B$1/B26*1000/1000000</f>
+        <v>2.7699334800474764</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>679.601</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9429032623554119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>1516.41</v>
+      </c>
+      <c r="C27" s="1">
+        <f>$B$1/B27*1000/1000000</f>
+        <v>1.3189045179074259</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>1435.15</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3935825523464447</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>7207.48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>3960.16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>2410.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>7376.87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>10118.799999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>6011.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>3304.23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>8170.98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>50</v>
+      </c>
+      <c r="B37">
+        <v>50</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>4845.3900000000003</v>
+      </c>
+      <c r="C40" s="1">
+        <f>$B$1/B40*1000/1000000</f>
+        <v>0.41276347208377445</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>4794.08</v>
+      </c>
+      <c r="G40" s="1">
+        <f>$B$1/F40*1000/1000000</f>
+        <v>0.41718119013449922</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>2970.62</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" ref="C41:C43" si="3">$B$1/B41*1000/1000000</f>
+        <v>0.67326012751546815</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>2969.67</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" ref="G41:G43" si="4">$B$1/F41*1000/1000000</f>
+        <v>0.67347550401223033</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>2393.7600000000002</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="3"/>
+        <v>0.8355056480181805</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <v>1990.81</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0046162114918049</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>5969.46</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="3"/>
+        <v>0.33503868021563094</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>6985.42</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="4"/>
+        <v>0.28631062985475458</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>8248.07</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>4719.4799999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>2951.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>8351.3700000000008</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>10970.1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>6182.35</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>3961.26</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>11759</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BF963E-D858-4309-9C8B-E9AF72DCEA03}">
+  <dimension ref="A1:G50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13798,497 +14397,6 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>948.47500000000002</v>
-      </c>
-      <c r="C7" s="1">
-        <f>$B$1/B7*1000/1000000</f>
-        <v>2.1086480929913809</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>728.81399999999996</v>
-      </c>
-      <c r="G7" s="2">
-        <f>$B$1/F7*1000/1000000</f>
-        <v>2.7441843872373477</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>565.23099999999999</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" ref="C8:C10" si="0">$B$1/B8*1000/1000000</f>
-        <v>3.5383763452464572</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>487.47199999999998</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" ref="G8:G10" si="1">$B$1/F8*1000/1000000</f>
-        <v>4.1027997505497753</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>326.18700000000001</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>6.1314522037972079</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>308.26499999999999</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="1"/>
-        <v>6.4879243508020696</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>725.327</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>2.7573770175382966</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>696.33600000000001</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="1"/>
-        <v>2.8721766503527033</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1">
-        <v>70</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>1857.31</v>
-      </c>
-      <c r="C22" s="1">
-        <f>$B$1/B22*1000/1000000</f>
-        <v>1.0768261625684459</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1755.31</v>
-      </c>
-      <c r="G22" s="2">
-        <f>$B$1/F22*1000/1000000</f>
-        <v>1.1393998780842129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23">
-        <v>1223.57</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" ref="C23:C25" si="2">$B$1/B23*1000/1000000</f>
-        <v>1.634561161192249</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>1134.3699999999999</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" ref="G23:G25" si="3">$B$1/F23*1000/1000000</f>
-        <v>1.7630931706586035</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>4</v>
-      </c>
-      <c r="B24">
-        <v>761.72699999999998</v>
-      </c>
-      <c r="C24" s="1">
-        <f t="shared" si="2"/>
-        <v>2.6256125882369927</v>
-      </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
-      <c r="F24">
-        <v>698.34699999999998</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="3"/>
-        <v>2.8639057660446743</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>8</v>
-      </c>
-      <c r="B25">
-        <v>2064.84</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" si="2"/>
-        <v>0.96859805118072106</v>
-      </c>
-      <c r="E25">
-        <v>8</v>
-      </c>
-      <c r="F25">
-        <v>1992.29</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="3"/>
-        <v>1.0038699185359561</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>50</v>
-      </c>
-      <c r="B35">
-        <v>50</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38">
-        <v>1755.31</v>
-      </c>
-      <c r="C38" s="1">
-        <f>$B$1/B38*1000/1000000</f>
-        <v>1.1393998780842129</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>4794.08</v>
-      </c>
-      <c r="G38" s="2">
-        <f>$B$1/F38*1000/1000000</f>
-        <v>0.41718119013449922</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>2</v>
-      </c>
-      <c r="B39">
-        <v>1134.3699999999999</v>
-      </c>
-      <c r="C39" s="1">
-        <f t="shared" ref="C39:C41" si="4">$B$1/B39*1000/1000000</f>
-        <v>1.7630931706586035</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-      <c r="F39">
-        <v>2969.67</v>
-      </c>
-      <c r="G39" s="2">
-        <f t="shared" ref="G39:G41" si="5">$B$1/F39*1000/1000000</f>
-        <v>0.67347550401223033</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>4</v>
-      </c>
-      <c r="B40">
-        <v>698.34699999999998</v>
-      </c>
-      <c r="C40" s="1">
-        <f t="shared" si="4"/>
-        <v>2.8639057660446743</v>
-      </c>
-      <c r="E40">
-        <v>4</v>
-      </c>
-      <c r="F40">
-        <v>1990.81</v>
-      </c>
-      <c r="G40" s="2">
-        <f t="shared" si="5"/>
-        <v>1.0046162114918049</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>8</v>
-      </c>
-      <c r="B41">
-        <v>1992.29</v>
-      </c>
-      <c r="C41" s="1">
-        <f t="shared" si="4"/>
-        <v>1.0038699185359561</v>
-      </c>
-      <c r="E41">
-        <v>8</v>
-      </c>
-      <c r="F41">
-        <v>6985.42</v>
-      </c>
-      <c r="G41" s="2">
-        <f t="shared" si="5"/>
-        <v>0.28631062985475458</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BF963E-D858-4309-9C8B-E9AF72DCEA03}">
-  <dimension ref="A1:G44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -14337,21 +14445,21 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>688.12</v>
+        <v>647.14200000000005</v>
       </c>
       <c r="C7" s="1">
         <f>$B$1/B7*1000/1000000</f>
-        <v>2.9064698017787598</v>
+        <v>3.0905118196624541</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>670.12099999999998</v>
+        <v>627.745</v>
       </c>
       <c r="G7" s="1">
         <f>$B$1/F7*1000/1000000</f>
-        <v>2.9845356286402005</v>
+        <v>3.1860070570056314</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -14359,21 +14467,21 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>410.827</v>
+        <v>434.92399999999998</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ref="C8:C10" si="0">$B$1/B8*1000/1000000</f>
-        <v>4.8682292059674754</v>
+        <v>4.598504566315035</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>426.98599999999999</v>
+        <v>405.86700000000002</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" ref="G8:G10" si="1">$B$1/F8*1000/1000000</f>
-        <v>4.6839943229988803</v>
+        <v>4.927722628348695</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -14381,21 +14489,21 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>278.75700000000001</v>
+        <v>238.67599999999999</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>7.1747077203442426</v>
+        <v>8.3795605758434029</v>
       </c>
       <c r="E9">
         <v>4</v>
       </c>
       <c r="F9">
-        <v>293.01100000000002</v>
+        <v>266.84300000000002</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="1"/>
-        <v>6.8256823122681398</v>
+        <v>7.4950439022196571</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -14403,358 +14511,441 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1243.18</v>
+        <v>341.01499999999999</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>1.60877748998536</v>
+        <v>5.8648446549272037</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10">
-        <v>1456.78</v>
+        <v>430.16699999999997</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="1"/>
-        <v>1.3728908963604662</v>
+        <v>4.6493571101455951</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8775.89</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>3582.03</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2160.2399999999998</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>4849.24</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>10530.5</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>6805.41</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>4510.4399999999996</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="1"/>
+      <c r="B18">
+        <v>9181.84</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1">
-        <v>70</v>
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>5</v>
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1">
+        <v>70</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
-      <c r="B22">
-        <v>1250.5999999999999</v>
-      </c>
-      <c r="C22" s="1">
-        <f>$B$1/B22*1000/1000000</f>
-        <v>1.599232368463138</v>
-      </c>
-      <c r="E22">
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
         <v>1</v>
       </c>
-      <c r="F22">
-        <v>1400.7</v>
-      </c>
-      <c r="G22" s="1">
-        <f>$B$1/F22*1000/1000000</f>
-        <v>1.4278574998215179</v>
+      <c r="F22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>792.88099999999997</v>
+        <v>1348.35</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" ref="C23:C25" si="2">$B$1/B23*1000/1000000</f>
-        <v>2.5224466218764228</v>
+        <f>$B$1/B23*1000/1000000</f>
+        <v>1.483294396855416</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>942.94299999999998</v>
+        <v>1336.91</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" ref="G23:G25" si="3">$B$1/F23*1000/1000000</f>
-        <v>2.1210189799383419</v>
+        <f>$B$1/F23*1000/1000000</f>
+        <v>1.495987014832711</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>522.32100000000003</v>
+        <v>739.66499999999996</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="2"/>
-        <v>3.829062970855087</v>
+        <f t="shared" ref="C24:C26" si="2">$B$1/B24*1000/1000000</f>
+        <v>2.7039267776628613</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>604.09</v>
+        <v>919.98800000000006</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3107649522422151</v>
+        <f t="shared" ref="G24:G26" si="3">$B$1/F24*1000/1000000</f>
+        <v>2.173941399235642</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B25">
-        <v>3112.24</v>
+        <v>432.96</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="2"/>
-        <v>0.64262396216230122</v>
+        <v>4.6193643754619371</v>
       </c>
       <c r="E25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>2796.64</v>
+        <v>557.899</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="3"/>
-        <v>0.71514388695005437</v>
+        <v>3.5848782664962653</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G26" s="1"/>
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>596.59400000000005</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="2"/>
+        <v>3.3523635839448604</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>1049.3800000000001</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9058872858259162</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>8234.24</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>3989.53</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>2428.15</v>
+      </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>6747.35</v>
+      </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>10398</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>6319.47</v>
+      </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>3430.01</v>
+      </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>8</v>
+      <c r="B34">
+        <v>8319.92</v>
       </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>50</v>
-      </c>
-      <c r="B35">
-        <v>50</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0</v>
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36">
+        <v>50</v>
+      </c>
+      <c r="B36">
+        <v>50</v>
+      </c>
+      <c r="C36" s="1">
         <v>0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>5</v>
       </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" t="s">
         <v>1</v>
       </c>
-      <c r="B38">
-        <v>1400.7</v>
-      </c>
-      <c r="C38" s="1">
-        <f>$B$1/B38*1000/1000000</f>
-        <v>1.4278574998215179</v>
-      </c>
-      <c r="E38">
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
         <v>1</v>
       </c>
-      <c r="F38">
-        <v>2915.45</v>
-      </c>
-      <c r="G38" s="1">
-        <f>$B$1/F38*1000/1000000</f>
-        <v>0.68600044590028986</v>
+      <c r="F38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39">
-        <v>942.94299999999998</v>
+        <v>3048.21</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" ref="C39:C41" si="4">$B$1/B39*1000/1000000</f>
-        <v>2.1210189799383419</v>
+        <f>$B$1/B39*1000/1000000</f>
+        <v>0.65612277369341343</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1680.08</v>
+        <v>4264.99</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" ref="G39:G41" si="5">$B$1/F39*1000/1000000</f>
-        <v>1.1904195038331509</v>
+        <f>$B$1/F39*1000/1000000</f>
+        <v>0.4689342765164749</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B40">
-        <v>604.09</v>
+        <v>1766.46</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="4"/>
-        <v>3.3107649522422151</v>
+        <f t="shared" ref="C40:C42" si="4">$B$1/B40*1000/1000000</f>
+        <v>1.1322079186621832</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F40">
-        <v>1132.81</v>
+        <v>2512.36</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="5"/>
-        <v>1.7655211377018212</v>
+        <f t="shared" ref="G40:G42" si="5">$B$1/F40*1000/1000000</f>
+        <v>0.79606425830693039</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B41">
-        <v>2796.64</v>
+        <v>1082.3699999999999</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="4"/>
-        <v>0.71514388695005437</v>
+        <v>1.8477969640695884</v>
       </c>
       <c r="E41">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F41">
-        <v>7272.07</v>
+        <v>1606.44</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" si="5"/>
-        <v>0.27502485537130417</v>
+        <v>1.2449889195986155</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G42" s="1"/>
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>2374.5</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="4"/>
+        <v>0.84228258580753845</v>
+      </c>
+      <c r="E42">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>3540.33</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="5"/>
+        <v>0.56491908946341163</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>7703.11</v>
+      </c>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>4460.42</v>
+      </c>
       <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>3075.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>8012.36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>10028.299999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>6089.34</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>4216.59</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>10244.299999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
